--- a/documents/Facebook Page Insight - BI Dashboard Metrics_v1.xlsx
+++ b/documents/Facebook Page Insight - BI Dashboard Metrics_v1.xlsx
@@ -18,7 +18,7 @@
     <sheet name="5. Lifetime Post Stories" sheetId="5" r:id="rId4"/>
     <sheet name="6. Lifetime Post Consumptions" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -334,7 +334,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="308">
   <si>
     <t>YÊU CẦU THIẾT KẾ TRANG FANPAGE TRÊN NỀN TẢNG POWER BI</t>
   </si>
@@ -1337,6 +1337,87 @@
   </si>
   <si>
     <t>((d10+d11)/d7)*100</t>
+  </si>
+  <si>
+    <t>[{'name': 'post_clicks_by_type', 'period': 'lifetime', 'values': [{'value': {'other clicks': 70, 'photo view': 38}}], 'title': 'Lifetime Matched Audience Targeting Consumptions by Type', 'description': 'Lifetime: The number of clicks anywhere in the post on News Feed from users that matched the audience targeting on the post, by type. (Total Count)', 'id': '217328504988428_3675976352456942/insights/post_clicks_by_type/lifetime'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'post_clicks_by_type', 'period': 'lifetime', 'values': [{'value': {'video play': 24, 'other clicks': 109}}], 'title': 'Lifetime Matched Audience Targeting Consumptions by Type', 'description': 'Lifetime: The number of clicks anywhere in the post on News Feed from users that matched the audience targeting on the post, by type. (Total Count)', 'id': '217328504988428_3676377849083459/insights/post_clicks_by_type/lifetime'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'post_clicks_by_type', 'period': 'lifetime', 'values': [{'value': {'other clicks': 19, 'photo view': 8, 'link clicks': 2}}], 'title': 'Lifetime Matched Audience Targeting Consumptions by Type', 'description': 'Lifetime: The number of clicks anywhere in the post on News Feed from users that matched the audience targeting on the post, by type. (Total Count)', 'id': '217328504988428_3673872622667315/insights/post_clicks_by_type/lifetime'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'post_clicks_by_type', 'period': 'lifetime', 'values': [{'value': {'other clicks': 614, 'photo view': 138, 'link clicks': 1}}], 'title': 'Lifetime Matched Audience Targeting Consumptions by Type', 'description': 'Lifetime: The number of clicks anywhere in the post on News Feed from users that matched the audience targeting on the post, by type. (Total Count)', 'id': '217328504988428_3674763959244848/insights/post_clicks_by_type/lifetime'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'post_clicks_by_type', 'period': 'lifetime', 'values': [{'value': {'other clicks': 85, 'photo view': 18, 'link clicks': 4}}], 'title': 'Lifetime Matched Audience Targeting Consumptions by Type', 'description': 'Lifetime: The number of clicks anywhere in the post on News Feed from users that matched the audience targeting on the post, by type. (Total Count)', 'id': '217328504988428_3666889520032292/insights/post_clicks_by_type/lifetime'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'post_clicks_by_type', 'period': 'lifetime', 'values': [{'value': {'other clicks': 190, 'photo view': 52, 'link clicks': 2}}], 'title': 'Lifetime Matched Audience Targeting Consumptions by Type', 'description': 'Lifetime: The number of clicks anywhere in the post on News Feed from users that matched the audience targeting on the post, by type. (Total Count)', 'id': '217328504988428_3660020864052491/insights/post_clicks_by_type/lifetime'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'post_clicks_by_type', 'period': 'lifetime', 'values': [{'value': {'video play': 128, 'other clicks': 978, 'link clicks': 3}}], 'title': 'Lifetime Matched Audience Targeting Consumptions by Type', 'description': 'Lifetime: The number of clicks anywhere in the post on News Feed from users that matched the audience targeting on the post, by type. (Total Count)', 'id': '217328504988428_3660025650718679/insights/post_clicks_by_type/lifetime'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'post_clicks_by_type', 'period': 'lifetime', 'values': [{'value': {'other clicks': 57, 'photo view': 7, 'link clicks': 1}}], 'title': 'Lifetime Matched Audience Targeting Consumptions by Type', 'description': 'Lifetime: The number of clicks anywhere in the post on News Feed from users that matched the audience targeting on the post, by type. (Total Count)', 'id': '217328504988428_3659325280788716/insights/post_clicks_by_type/lifetime'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'post_clicks_by_type', 'period': 'lifetime', 'values': [{'value': {'other clicks': 50, 'photo view': 13, 'link clicks': 1}}], 'title': 'Lifetime Matched Audience Targeting Consumptions by Type', 'description': 'Lifetime: The number of clicks anywhere in the post on News Feed from users that matched the audience targeting on the post, by type. (Total Count)', 'id': '217328504988428_3651979828189928/insights/post_clicks_by_type/lifetime'}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{'name': 'post_clicks_by_type', 'period': 'lifetime', 'values': [{'value': {'other clicks': 1039}}], 'title': 'Lifetime Matched Audience Targeting Consumptions by Type', 'description': 'Lifetime: The </t>
+  </si>
+  <si>
+    <t>number of clicks anywhere in the post on News Feed from users that matched the audience targeting on the post, by type. (Total Count)', 'id': '217328504988428_3649732115081366/insights/post_clicks_by_type/lifetime'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'post_clicks_by_type', 'period': 'lifetime', 'values': [{'value': {'other clicks': 34, 'link clicks': 176}}], 'title': 'Lifetime Matched Audience Targeting Consumptions by Type', 'description': 'Lifetime: The number of clicks anywhere in the post on News Feed from users that matched the audience targeting on the post, by type. (Total Count)', 'id': '217328504988428_3649716588416252/insights/post_clicks_by_type/lifetime'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'post_clicks_by_type', 'period': 'lifetime', 'values': [{'value': {'other clicks': 1230, 'photo view': 382}}], 'title': 'Lifetime Matched Audience Targeting Consumptions by Type', 'description': 'Lifetime: The number of clicks anywhere in the post on News Feed from users that matched the audience targeting on the post, by type. (Total Count)', 'id': '217328504988428_3647493675305210/insights/post_clicks_by_type/lifetime'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'post_clicks_by_type', 'period': 'lifetime', 'values': [{'value': {'other clicks': 18, 'link clicks': 116}}], 'title': 'Lifetime Matched Audience Targeting Consumptions by Type', 'description': 'Lifetime: The number of clicks anywhere in the post on News Feed from users that matched the audience targeting on the post, by type. (Total Count)', 'id': '217328504988428_3642110995843478/insights/post_clicks_by_type/lifetime'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'post_clicks_by_type', 'period': 'lifetime', 'values': [{'value': {'other clicks': 236, 'photo view': 130}}], 'title': 'Lifetime Matched Audience Targeting Consumptions by Type', 'description': 'Lifetime: The number of clicks anywhere in the post on News Feed from users that matched the audience targeting on the post, by type. (Total Count)', 'id': '217328504988428_3639390156115562/insights/post_clicks_by_type/lifetime'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'post_clicks_by_type', 'period': 'lifetime', 'values': [{'value': {'other clicks': 18, 'link clicks': 79}}], 'title': 'Lifetime Matched Audience Targeting Consumptions by Type', 'description': 'Lifetime: The number of clicks anywhere in the post on News Feed from users that matched the audience targeting on the post, by type. (Total Count)', 'id': '217328504988428_3635996936454884/insights/post_clicks_by_type/lifetime'}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{'name': 'post_clicks_by_type', 'period': 'lifetime', 'values': [{'value': {'other clicks': 26, 'photo view': 3}}], 'title': 'Lifetime Matched Audience Targeting Consumptions by Type', 'description': </t>
+  </si>
+  <si>
+    <t>'Lifetime: The number of clicks anywhere in the post on News Feed from users that matched the audience targeting on the post, by type. (Total Count)', 'id': '217328504988428_3634300536624524/insights/post_clicks_by_type/lifetime'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'post_clicks_by_type', 'period': 'lifetime', 'values': [{'value': {'other clicks': 337, 'photo view': 176}}], 'title': 'Lifetime Matched Audience Targeting Consumptions by Type', 'description': 'Lifetime: The number of clicks anywhere in the post on News Feed from users that matched the audience targeting on the post, by type. (Total Count)', 'id': '217328504988428_3633427710045140/insights/post_clicks_by_type/lifetime'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'post_clicks_by_type', 'period': 'lifetime', 'values': [{'value': {'other clicks': 71, 'link clicks': 169}}], 'title': 'Lifetime Matched Audience Targeting Consumptions by Type', 'description': 'Lifetime: The number of clicks anywhere in the post on News Feed from users that matched the audience targeting on the post, by type. (Total Count)', 'id': '217328504988428_3633314086723169/insights/post_clicks_by_type/lifetime'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'post_clicks_by_type', 'period': 'lifetime', 'values': [{'value': {'other clicks': 442, 'photo view': 68}}], 'title': 'Lifetime Matched Audience Targeting Consumptions by Type', 'description': 'Lifetime: The number of clicks anywhere in the post on News Feed from users that matched the audience targeting on the post, by type. (Total Count)', 'id': '217328504988428_3629543733766871/insights/post_clicks_by_type/lifetime'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'post_clicks_by_type', 'period': 'lifetime', 'values': [{'value': {'other clicks': 840, 'photo view': 16}}], 'title': 'Lifetime Matched Audience Targeting Consumptions by Type', 'description': 'Lifetime: The number of clicks anywhere in the post on News Feed from users that matched the audience targeting on the post, by type. (Total Count)', 'id': '217328504988428_3624530267601551/insights/post_clicks_by_type/lifetime'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'post_clicks_by_type', 'period': 'lifetime', 'values': [{'value': {'other clicks': 116, 'photo view': 11}}], 'title': 'Lifetime Matched Audience Targeting Consumptions by Type', 'description': 'Lifetime: The number of clicks anywhere in the post on News Feed from users that matched the audience targeting on the post, by type. (Total Count)', 'id': '217328504988428_3620477794673465/insights/post_clicks_by_type/lifetime'}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{'name': 'post_clicks_by_type', 'period': 'lifetime', 'values': [{'value': {'other clicks': 17, 'photo view': 5}}], 'title': 'Lifetime Matched Audience Targeting Consumptions by Type', 'description': </t>
+  </si>
+  <si>
+    <t>'Lifetime: The number of clicks anywhere in the post on News Feed from users that matched the audience targeting on the post, by type. (Total Count)', 'id': '217328504988428_3617293028325275/insights/post_clicks_by_type/lifetime'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'post_clicks_by_type', 'period': 'lifetime', 'values': [{'value': {'other clicks': 22, 'photo view': 53}}], 'title': 'Lifetime Matched Audience Targeting Consumptions by Type', 'description': 'Lifetime: The number of clicks anywhere in the post on News Feed from users that matched the audience targeting on the post, by type. (Total Count)', 'id': '217328504988428_3612495355471709/insights/post_clicks_by_type/lifetime'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'post_clicks_by_type', 'period': 'lifetime', 'values': [{'value': {'other clicks': 150, 'photo view': 39}}], 'title': 'Lifetime Matched Audience Targeting Consumptions by Type', 'description': 'Lifetime: The number of clicks anywhere in the post on News Feed from users that matched the audience targeting on the post, by type. (Total Count)', 'id': '217328504988428_3612072188847359/insights/post_clicks_by_type/lifetime'}]</t>
   </si>
 </sst>
 </file>
@@ -2593,6 +2674,129 @@
     <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2605,12 +2809,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2626,9 +2824,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2638,15 +2833,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2669,114 +2858,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3773,19 +3854,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="194"/>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="194"/>
-      <c r="I1" s="194"/>
-      <c r="J1" s="194"/>
-      <c r="K1" s="194"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -3793,21 +3874,21 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="143" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="192"/>
-      <c r="C3" s="193"/>
-      <c r="D3" s="190" t="s">
+      <c r="B3" s="145"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="143" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="191"/>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="193"/>
-      <c r="K3" s="195" t="s">
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="148" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3842,7 +3923,7 @@
       <c r="J4" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="196"/>
+      <c r="K4" s="149"/>
     </row>
     <row r="5" spans="1:11" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="64" t="s">
@@ -3867,10 +3948,10 @@
       <c r="A6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="187" t="s">
+      <c r="B6" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="184" t="s">
+      <c r="C6" s="137" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="95" t="s">
@@ -3888,10 +3969,10 @@
       <c r="H6" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="I6" s="170" t="s">
+      <c r="I6" s="152" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="184" t="s">
+      <c r="J6" s="137" t="s">
         <v>32</v>
       </c>
       <c r="K6" s="70"/>
@@ -3900,8 +3981,8 @@
       <c r="A7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="188"/>
-      <c r="C7" s="185"/>
+      <c r="B7" s="141"/>
+      <c r="C7" s="138"/>
       <c r="D7" s="95" t="s">
         <v>57</v>
       </c>
@@ -3917,8 +3998,8 @@
       <c r="H7" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="I7" s="171"/>
-      <c r="J7" s="185"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="138"/>
       <c r="K7" s="71" t="s">
         <v>277</v>
       </c>
@@ -3927,8 +4008,8 @@
       <c r="A8" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="188"/>
-      <c r="C8" s="185"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="138"/>
       <c r="D8" s="95" t="s">
         <v>67</v>
       </c>
@@ -3944,16 +4025,16 @@
       <c r="H8" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="171"/>
-      <c r="J8" s="185"/>
+      <c r="I8" s="153"/>
+      <c r="J8" s="138"/>
       <c r="K8" s="71"/>
     </row>
     <row r="9" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="188"/>
-      <c r="C9" s="185"/>
+      <c r="B9" s="141"/>
+      <c r="C9" s="138"/>
       <c r="D9" s="95" t="s">
         <v>46</v>
       </c>
@@ -3969,16 +4050,16 @@
       <c r="H9" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="I9" s="171"/>
-      <c r="J9" s="185"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="138"/>
       <c r="K9" s="71"/>
     </row>
     <row r="10" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="197" t="s">
+      <c r="A10" s="150" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="188"/>
-      <c r="C10" s="185"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="138"/>
       <c r="D10" s="96" t="s">
         <v>120</v>
       </c>
@@ -3991,17 +4072,17 @@
       <c r="G10" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="163" t="s">
+      <c r="H10" s="155" t="s">
         <v>124</v>
       </c>
-      <c r="I10" s="171"/>
-      <c r="J10" s="185"/>
+      <c r="I10" s="153"/>
+      <c r="J10" s="138"/>
       <c r="K10" s="71"/>
     </row>
     <row r="11" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="198"/>
-      <c r="B11" s="188"/>
-      <c r="C11" s="185"/>
+      <c r="A11" s="151"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="138"/>
       <c r="D11" s="97" t="s">
         <v>118</v>
       </c>
@@ -4014,17 +4095,17 @@
       <c r="G11" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="164"/>
-      <c r="I11" s="171"/>
-      <c r="J11" s="185"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="153"/>
+      <c r="J11" s="138"/>
       <c r="K11" s="71"/>
     </row>
     <row r="12" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="135" t="s">
         <v>278</v>
       </c>
-      <c r="B12" s="188"/>
-      <c r="C12" s="185"/>
+      <c r="B12" s="141"/>
+      <c r="C12" s="138"/>
       <c r="D12" s="97"/>
       <c r="E12" s="86"/>
       <c r="F12" s="38"/>
@@ -4032,16 +4113,16 @@
       <c r="H12" s="36" t="s">
         <v>280</v>
       </c>
-      <c r="I12" s="171"/>
-      <c r="J12" s="185"/>
+      <c r="I12" s="153"/>
+      <c r="J12" s="138"/>
       <c r="K12" s="71"/>
     </row>
     <row r="13" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="188"/>
-      <c r="C13" s="185"/>
+      <c r="B13" s="141"/>
+      <c r="C13" s="138"/>
       <c r="D13" s="98" t="s">
         <v>72</v>
       </c>
@@ -4057,16 +4138,16 @@
       <c r="H13" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="I13" s="171"/>
-      <c r="J13" s="185"/>
+      <c r="I13" s="153"/>
+      <c r="J13" s="138"/>
       <c r="K13" s="71"/>
     </row>
     <row r="14" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="189"/>
-      <c r="C14" s="186"/>
+      <c r="B14" s="142"/>
+      <c r="C14" s="139"/>
       <c r="D14" s="99" t="s">
         <v>46</v>
       </c>
@@ -4078,8 +4159,8 @@
       </c>
       <c r="G14" s="88"/>
       <c r="H14" s="47"/>
-      <c r="I14" s="172"/>
-      <c r="J14" s="186"/>
+      <c r="I14" s="154"/>
+      <c r="J14" s="139"/>
       <c r="K14" s="75"/>
     </row>
     <row r="15" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -4108,10 +4189,10 @@
       <c r="A16" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="176" t="s">
+      <c r="B16" s="157" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="165" t="s">
+      <c r="C16" s="159" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="95" t="str">
@@ -4133,10 +4214,10 @@
       <c r="H16" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I16" s="170" t="s">
+      <c r="I16" s="152" t="s">
         <v>49</v>
       </c>
-      <c r="J16" s="165" t="s">
+      <c r="J16" s="159" t="s">
         <v>32</v>
       </c>
       <c r="K16" s="52"/>
@@ -4145,8 +4226,8 @@
       <c r="A17" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="176"/>
-      <c r="C17" s="165"/>
+      <c r="B17" s="157"/>
+      <c r="C17" s="159"/>
       <c r="D17" s="98" t="s">
         <v>82</v>
       </c>
@@ -4162,8 +4243,8 @@
       <c r="H17" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="171"/>
-      <c r="J17" s="165"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="159"/>
       <c r="K17" s="53" t="s">
         <v>111</v>
       </c>
@@ -4172,8 +4253,8 @@
       <c r="A18" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B18" s="176"/>
-      <c r="C18" s="165"/>
+      <c r="B18" s="157"/>
+      <c r="C18" s="159"/>
       <c r="D18" s="98" t="s">
         <v>110</v>
       </c>
@@ -4189,8 +4270,8 @@
       <c r="H18" s="58" t="s">
         <v>279</v>
       </c>
-      <c r="I18" s="171"/>
-      <c r="J18" s="165"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="159"/>
       <c r="K18" s="54" t="s">
         <v>112</v>
       </c>
@@ -4199,8 +4280,8 @@
       <c r="A19" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="177"/>
-      <c r="C19" s="166"/>
+      <c r="B19" s="158"/>
+      <c r="C19" s="160"/>
       <c r="D19" s="101" t="s">
         <v>84</v>
       </c>
@@ -4214,8 +4295,8 @@
         <v>46</v>
       </c>
       <c r="H19" s="78"/>
-      <c r="I19" s="172"/>
-      <c r="J19" s="166"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="160"/>
       <c r="K19" s="59" t="s">
         <v>228</v>
       </c>
@@ -4245,10 +4326,10 @@
       <c r="A21" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="178" t="s">
+      <c r="B21" s="161" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="152" t="s">
+      <c r="C21" s="163" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="96" t="s">
@@ -4266,13 +4347,13 @@
       <c r="H21" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="I21" s="148" t="s">
+      <c r="I21" s="174" t="s">
         <v>50</v>
       </c>
-      <c r="J21" s="152" t="s">
+      <c r="J21" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="K21" s="139" t="s">
+      <c r="K21" s="180" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4280,8 +4361,8 @@
       <c r="A22" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="179"/>
-      <c r="C22" s="154"/>
+      <c r="B22" s="162"/>
+      <c r="C22" s="164"/>
       <c r="D22" s="100" t="s">
         <v>117</v>
       </c>
@@ -4295,9 +4376,9 @@
         <v>79</v>
       </c>
       <c r="H22" s="78"/>
-      <c r="I22" s="173"/>
-      <c r="J22" s="154"/>
-      <c r="K22" s="140"/>
+      <c r="I22" s="175"/>
+      <c r="J22" s="164"/>
+      <c r="K22" s="181"/>
     </row>
     <row r="23" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="76" t="s">
@@ -4313,7 +4394,7 @@
       <c r="E23" s="77"/>
       <c r="F23" s="77"/>
       <c r="G23" s="89"/>
-      <c r="H23" s="163" t="s">
+      <c r="H23" s="155" t="s">
         <v>127</v>
       </c>
       <c r="I23" s="78"/>
@@ -4321,13 +4402,13 @@
       <c r="K23" s="80"/>
     </row>
     <row r="24" spans="1:11" s="85" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="144" t="s">
+      <c r="A24" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="146" t="s">
+      <c r="B24" s="185" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="152" t="s">
+      <c r="C24" s="163" t="s">
         <v>32</v>
       </c>
       <c r="D24" s="96" t="s">
@@ -4342,19 +4423,19 @@
       <c r="G24" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="H24" s="164"/>
-      <c r="I24" s="148" t="s">
+      <c r="H24" s="156"/>
+      <c r="I24" s="174" t="s">
         <v>50</v>
       </c>
-      <c r="J24" s="167" t="s">
+      <c r="J24" s="171" t="s">
         <v>32</v>
       </c>
-      <c r="K24" s="138"/>
+      <c r="K24" s="179"/>
     </row>
     <row r="25" spans="1:11" s="85" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="145"/>
-      <c r="B25" s="147"/>
-      <c r="C25" s="153"/>
+      <c r="A25" s="184"/>
+      <c r="B25" s="186"/>
+      <c r="C25" s="190"/>
       <c r="D25" s="97" t="s">
         <v>118</v>
       </c>
@@ -4370,38 +4451,38 @@
       <c r="H25" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="149"/>
-      <c r="J25" s="168"/>
-      <c r="K25" s="138"/>
+      <c r="I25" s="187"/>
+      <c r="J25" s="172"/>
+      <c r="K25" s="179"/>
     </row>
     <row r="26" spans="1:11" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="146" t="s">
+      <c r="B26" s="185" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="153"/>
-      <c r="D26" s="181" t="s">
+      <c r="C26" s="190"/>
+      <c r="D26" s="168" t="s">
         <v>129</v>
       </c>
       <c r="E26" s="102" t="s">
         <v>130</v>
       </c>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="165" t="s">
         <v>128</v>
       </c>
-      <c r="G26" s="155" t="s">
+      <c r="G26" s="191" t="s">
         <v>46</v>
       </c>
       <c r="H26" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I26" s="148" t="s">
+      <c r="I26" s="174" t="s">
         <v>48</v>
       </c>
-      <c r="J26" s="168"/>
-      <c r="K26" s="137" t="s">
+      <c r="J26" s="172"/>
+      <c r="K26" s="178" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4409,62 +4490,62 @@
       <c r="A27" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="150"/>
-      <c r="C27" s="153"/>
-      <c r="D27" s="182"/>
+      <c r="B27" s="188"/>
+      <c r="C27" s="190"/>
+      <c r="D27" s="169"/>
       <c r="E27" s="102" t="s">
         <v>131</v>
       </c>
-      <c r="F27" s="142"/>
-      <c r="G27" s="156"/>
+      <c r="F27" s="166"/>
+      <c r="G27" s="192"/>
       <c r="H27" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I27" s="174"/>
-      <c r="J27" s="168"/>
-      <c r="K27" s="138"/>
+      <c r="I27" s="176"/>
+      <c r="J27" s="172"/>
+      <c r="K27" s="179"/>
     </row>
     <row r="28" spans="1:11" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="150"/>
-      <c r="C28" s="153"/>
-      <c r="D28" s="183"/>
+      <c r="B28" s="188"/>
+      <c r="C28" s="190"/>
+      <c r="D28" s="170"/>
       <c r="E28" s="102" t="s">
         <v>132</v>
       </c>
-      <c r="F28" s="180"/>
-      <c r="G28" s="157"/>
+      <c r="F28" s="167"/>
+      <c r="G28" s="193"/>
       <c r="H28" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I28" s="174"/>
-      <c r="J28" s="168"/>
-      <c r="K28" s="138"/>
+      <c r="I28" s="176"/>
+      <c r="J28" s="172"/>
+      <c r="K28" s="179"/>
     </row>
     <row r="29" spans="1:11" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="150"/>
-      <c r="C29" s="153"/>
-      <c r="D29" s="159"/>
+      <c r="B29" s="188"/>
+      <c r="C29" s="190"/>
+      <c r="D29" s="195"/>
       <c r="E29" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="F29" s="141" t="s">
+      <c r="F29" s="165" t="s">
         <v>229</v>
       </c>
-      <c r="G29" s="155" t="s">
+      <c r="G29" s="191" t="s">
         <v>46</v>
       </c>
       <c r="H29" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I29" s="174"/>
-      <c r="J29" s="168"/>
-      <c r="K29" s="137" t="s">
+      <c r="I29" s="176"/>
+      <c r="J29" s="172"/>
+      <c r="K29" s="178" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4472,58 +4553,58 @@
       <c r="A30" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="150"/>
-      <c r="C30" s="153"/>
-      <c r="D30" s="160"/>
+      <c r="B30" s="188"/>
+      <c r="C30" s="190"/>
+      <c r="D30" s="196"/>
       <c r="E30" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="F30" s="142"/>
-      <c r="G30" s="156"/>
+      <c r="F30" s="166"/>
+      <c r="G30" s="192"/>
       <c r="H30" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I30" s="174"/>
-      <c r="J30" s="168"/>
-      <c r="K30" s="138"/>
+      <c r="I30" s="176"/>
+      <c r="J30" s="172"/>
+      <c r="K30" s="179"/>
     </row>
     <row r="31" spans="1:11" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="118" t="s">
         <v>234</v>
       </c>
-      <c r="B31" s="150"/>
-      <c r="C31" s="153"/>
-      <c r="D31" s="160"/>
+      <c r="B31" s="188"/>
+      <c r="C31" s="190"/>
+      <c r="D31" s="196"/>
       <c r="E31" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="F31" s="142"/>
-      <c r="G31" s="156"/>
+      <c r="F31" s="166"/>
+      <c r="G31" s="192"/>
       <c r="H31" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="I31" s="174"/>
-      <c r="J31" s="168"/>
-      <c r="K31" s="138"/>
+      <c r="I31" s="176"/>
+      <c r="J31" s="172"/>
+      <c r="K31" s="179"/>
     </row>
     <row r="32" spans="1:11" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="151"/>
-      <c r="C32" s="154"/>
-      <c r="D32" s="161"/>
+      <c r="B32" s="189"/>
+      <c r="C32" s="164"/>
+      <c r="D32" s="197"/>
       <c r="E32" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="F32" s="143"/>
-      <c r="G32" s="158"/>
+      <c r="F32" s="182"/>
+      <c r="G32" s="194"/>
       <c r="H32" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="I32" s="175"/>
-      <c r="J32" s="169"/>
-      <c r="K32" s="162"/>
+      <c r="I32" s="177"/>
+      <c r="J32" s="173"/>
+      <c r="K32" s="198"/>
     </row>
     <row r="33" spans="13:23" x14ac:dyDescent="0.3">
       <c r="M33" s="1"/>
@@ -4852,28 +4933,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C6:C14"/>
-    <mergeCell ref="B6:B14"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="J6:J14"/>
-    <mergeCell ref="I6:I14"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J24:J32"/>
-    <mergeCell ref="I16:I19"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I26:I32"/>
     <mergeCell ref="K26:K28"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="F29:F32"/>
@@ -4888,6 +4947,28 @@
     <mergeCell ref="D29:D32"/>
     <mergeCell ref="K29:K32"/>
     <mergeCell ref="H23:H24"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J24:J32"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I26:I32"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="C6:C14"/>
+    <mergeCell ref="B6:B14"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="J6:J14"/>
+    <mergeCell ref="I6:I14"/>
+    <mergeCell ref="H10:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7070,8 +7151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="B1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8166,10 +8247,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="15.45" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9112,6 +9193,141 @@
         <v>106</v>
       </c>
     </row>
+    <row r="42" spans="2:2" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="111" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="111" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="111" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="111" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="111" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="111" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="111" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="111" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="111" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="111" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="111" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="111" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="111" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="111" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="111" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="111" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="111" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="111" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="111" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="111" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="111" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="111" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="111" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="111" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="111" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="111" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="111" t="s">
+        <v>307</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
